--- a/watsonx-governance-l4-deploy/configuration_lab_files/business_entity_finished.xlsx
+++ b/watsonx-governance-l4-deploy/configuration_lab_files/business_entity_finished.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmartens/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmartens/Downloads/lab files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64AF0FD7-9A47-A147-A9B5-51830D99EAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36D2B7E3-A697-8A47-BE6D-D66DBBAC1CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41480" yWindow="3380" windowWidth="23240" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40540" yWindow="3680" windowWidth="23240" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Entities" sheetId="3" r:id="rId1"/>
@@ -371,6 +371,9 @@
     <t>Information Technology</t>
   </si>
   <si>
+    <t>epetrov@global.com</t>
+  </si>
+  <si>
     <t>/GlobalCorp/Information Technology/Special Projects</t>
   </si>
   <si>
@@ -378,9 +381,6 @@
   </si>
   <si>
     <t>amorales@global.com</t>
-  </si>
-  <si>
-    <t>epetrov@global.com</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
   <dimension ref="A1:BE23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2531,7 +2531,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>110</v>
@@ -2598,17 +2598,17 @@
         <v>115</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>110</v>
@@ -2665,14 +2665,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K20" r:id="rId1" xr:uid="{A48A86CD-3AC8-3942-A9B2-0491C82F6BD8}"/>
-    <hyperlink ref="L20" r:id="rId2" xr:uid="{21BE3939-2396-EE45-B8B6-FA156224C01D}"/>
-    <hyperlink ref="K21" r:id="rId3" xr:uid="{BA1664E0-7350-6E49-B9B7-E9A7E944DCBD}"/>
-    <hyperlink ref="L21" r:id="rId4" xr:uid="{2C93DDAC-751E-124D-80EF-36E905F02ADC}"/>
-    <hyperlink ref="L22" r:id="rId5" xr:uid="{19401CE3-C6FF-024B-A403-247D698EDA74}"/>
-    <hyperlink ref="L23" r:id="rId6" xr:uid="{2BA0DAF5-6BD8-3B42-90FE-59DEA3CCC0F8}"/>
-    <hyperlink ref="K23" r:id="rId7" xr:uid="{E60AD41B-DD37-B24C-8713-D1AFF9357A7C}"/>
-    <hyperlink ref="K22" r:id="rId8" xr:uid="{8B33463C-468E-7E49-AF3F-5A46D1EC8DAF}"/>
+    <hyperlink ref="L20" r:id="rId1" xr:uid="{66230C34-6210-904B-A5BF-AA9343710AFB}"/>
+    <hyperlink ref="L21" r:id="rId2" xr:uid="{B29A3A2B-89FB-B541-976F-9EB00B77280A}"/>
+    <hyperlink ref="K21" r:id="rId3" xr:uid="{150BD7D5-A8B1-D94A-BAD3-EE5F6B13C747}"/>
+    <hyperlink ref="K20" r:id="rId4" xr:uid="{62F06BE4-C750-2946-9A6B-377803B12F21}"/>
+    <hyperlink ref="L22" r:id="rId5" xr:uid="{CF9B993A-8DA2-8949-A3B8-436D69523932}"/>
+    <hyperlink ref="K22" r:id="rId6" xr:uid="{40D8B17A-41C0-9C40-B595-92EAE89F1AB4}"/>
+    <hyperlink ref="L23" r:id="rId7" xr:uid="{2C9DD7B0-53E9-674C-90B7-E907110BB59A}"/>
+    <hyperlink ref="K23" r:id="rId8" xr:uid="{92A48A82-BFFF-D947-8545-5B2F8271C90E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2683,7 +2683,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
